--- a/Content.xlsx
+++ b/Content.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN\Desktop\ReadExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN\Desktop\ReadExcel\ExcelToHTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
   <si>
     <t>Heading</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>This sample shows how to create an Excel worksheet with custom formatting using the Infragistics Ignite UI JavaScript Excel library.</t>
+  </si>
+  <si>
+    <t>Description1</t>
+  </si>
+  <si>
+    <t>Table View</t>
   </si>
 </sst>
 </file>
@@ -410,21 +416,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="37.265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.53125" customWidth="1"/>
-    <col min="3" max="3" width="52.3984375" customWidth="1"/>
-    <col min="4" max="4" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="53.6640625" customWidth="1"/>
     <col min="5" max="5" width="14.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.06640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.45">
@@ -438,7 +444,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
@@ -456,7 +462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="63.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -464,7 +470,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -485,7 +491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="337.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -493,7 +499,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -514,7 +520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="337.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="135" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -522,7 +528,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -543,7 +549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="337.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="135" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -551,7 +557,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -572,7 +578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="337.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="135" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -580,7 +586,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
